--- a/Project/CurrencyPrediction/Result/Result_1025.xlsx
+++ b/Project/CurrencyPrediction/Result/Result_1025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Project\CurrencyPrediction\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8288ED-1DBC-4BF8-BC2B-2DA68A4EC9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5584D9A-16BA-43BD-BC64-C5546FD37AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,17 +449,17 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,154 +488,154 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3">
-        <v>6.9459999999999997</v>
+        <v>7.1589999999999998</v>
       </c>
       <c r="E2" s="3">
-        <v>5.3840000000000003</v>
+        <v>5.4989999999999997</v>
       </c>
       <c r="F2" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G2" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H2" s="3">
-        <v>4.5620000000000003</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I2" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>6.976</v>
+        <v>7.1829999999999998</v>
       </c>
       <c r="E3" s="3">
-        <v>5.39</v>
+        <v>5.5209999999999999</v>
       </c>
       <c r="F3" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G3" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H3" s="3">
-        <v>4.5190000000000001</v>
+        <v>4.6230000000000002</v>
       </c>
       <c r="I3" s="3">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>6.9950000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="E4" s="3">
-        <v>5.4080000000000004</v>
+        <v>5.5339999999999998</v>
       </c>
       <c r="F4" s="3">
-        <v>0.39600000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G4" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>4.5449999999999999</v>
+        <v>4.6909999999999998</v>
       </c>
       <c r="I4" s="3">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>6.9960000000000004</v>
+        <v>7.2290000000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>5.383</v>
+        <v>5.5570000000000004</v>
       </c>
       <c r="F5" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G5" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H5" s="3">
-        <v>4.4400000000000004</v>
+        <v>4.609</v>
       </c>
       <c r="I5" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
-        <v>7</v>
+        <v>7.3140000000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>5.4240000000000004</v>
+        <v>5.6349999999999998</v>
       </c>
       <c r="F6" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H6" s="3">
-        <v>4.585</v>
+        <v>4.617</v>
       </c>
       <c r="I6" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -644,317 +644,317 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>7.0019999999999998</v>
+        <v>7.3159999999999998</v>
       </c>
       <c r="E7" s="3">
-        <v>5.3630000000000004</v>
+        <v>5.6189999999999998</v>
       </c>
       <c r="F7" s="3">
-        <v>0.39200000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="G7" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H7" s="3">
-        <v>4.4409999999999998</v>
+        <v>4.6059999999999999</v>
       </c>
       <c r="I7" s="3">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>7.008</v>
+        <v>7.3170000000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>5.3570000000000002</v>
+        <v>5.6449999999999996</v>
       </c>
       <c r="F8" s="3">
-        <v>0.39200000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G8" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H8" s="3">
-        <v>4.4390000000000001</v>
+        <v>4.66</v>
       </c>
       <c r="I8" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3">
-        <v>7.0359999999999996</v>
+        <v>7.3179999999999996</v>
       </c>
       <c r="E9" s="3">
-        <v>5.508</v>
+        <v>5.6210000000000004</v>
       </c>
       <c r="F9" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="G9" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H9" s="3">
-        <v>4.6109999999999998</v>
+        <v>4.6230000000000002</v>
       </c>
       <c r="I9" s="3">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>7.0449999999999999</v>
+        <v>7.3760000000000003</v>
       </c>
       <c r="E10" s="3">
-        <v>5.3780000000000001</v>
+        <v>5.6760000000000002</v>
       </c>
       <c r="F10" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="G10" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H10" s="3">
-        <v>4.3959999999999999</v>
+        <v>4.58</v>
       </c>
       <c r="I10" s="3">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
-        <v>7.0449999999999999</v>
+        <v>7.4180000000000001</v>
       </c>
       <c r="E11" s="3">
-        <v>5.3840000000000003</v>
+        <v>5.718</v>
       </c>
       <c r="F11" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G11" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H11" s="3">
-        <v>4.5209999999999999</v>
+        <v>4.7809999999999997</v>
       </c>
       <c r="I11" s="3">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
-        <v>7.0519999999999996</v>
+        <v>7.5519999999999996</v>
       </c>
       <c r="E12" s="3">
-        <v>5.4260000000000002</v>
+        <v>5.8159999999999998</v>
       </c>
       <c r="F12" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G12" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H12" s="3">
-        <v>4.5330000000000004</v>
+        <v>4.7489999999999997</v>
       </c>
       <c r="I12" s="3">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <v>7.0529999999999999</v>
+        <v>7.5659999999999998</v>
       </c>
       <c r="E13" s="3">
-        <v>5.5330000000000004</v>
+        <v>5.8520000000000003</v>
       </c>
       <c r="F13" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="G13" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H13" s="3">
-        <v>4.6630000000000003</v>
+        <v>4.7549999999999999</v>
       </c>
       <c r="I13" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>7.0549999999999997</v>
+        <v>7.577</v>
       </c>
       <c r="E14" s="3">
-        <v>5.4509999999999996</v>
+        <v>5.82</v>
       </c>
       <c r="F14" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G14" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H14" s="3">
-        <v>4.556</v>
+        <v>4.8019999999999996</v>
       </c>
       <c r="I14" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7.0579999999999998</v>
+        <v>7.6159999999999997</v>
       </c>
       <c r="E15" s="3">
-        <v>5.4359999999999999</v>
+        <v>5.907</v>
       </c>
       <c r="F15" s="3">
-        <v>0.39800000000000002</v>
+        <v>0.432</v>
       </c>
       <c r="G15" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H15" s="3">
-        <v>4.6070000000000002</v>
+        <v>4.7549999999999999</v>
       </c>
       <c r="I15" s="3">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3">
-        <v>7.0620000000000003</v>
+        <v>7.67</v>
       </c>
       <c r="E16" s="3">
-        <v>5.3639999999999999</v>
+        <v>5.9290000000000003</v>
       </c>
       <c r="F16" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="G16" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H16" s="3">
-        <v>4.5359999999999996</v>
+        <v>4.782</v>
       </c>
       <c r="I16" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>7.0629999999999997</v>
+        <v>7.8929999999999998</v>
       </c>
       <c r="E17" s="3">
-        <v>5.3920000000000003</v>
+        <v>6.1269999999999998</v>
       </c>
       <c r="F17" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="G17" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H17" s="3">
-        <v>4.3170000000000002</v>
+        <v>4.9560000000000004</v>
       </c>
       <c r="I17" s="3">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
@@ -963,184 +963,184 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7.0640000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="E18" s="3">
-        <v>5.46</v>
+        <v>5.4109999999999996</v>
       </c>
       <c r="F18" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7.1619999999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="F19" s="3">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G18" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4.5620000000000003</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3">
-        <v>7.0739999999999998</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5.5549999999999997</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.40600000000000003</v>
-      </c>
       <c r="G19" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H19" s="3">
-        <v>4.7210000000000001</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="I19" s="3">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7.1680000000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5.468</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7.1769999999999996</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5.4729999999999999</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.569</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>7.0789999999999997</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5.4109999999999996</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4.5940000000000003</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D22" s="3">
+        <v>7.1929999999999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5.476</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4.476</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>7.0860000000000003</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5.5670000000000002</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D23" s="3">
+        <v>7.2430000000000003</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5.5529999999999999</v>
+      </c>
+      <c r="F23" s="3">
         <v>0.40699999999999997</v>
       </c>
-      <c r="G21" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4.6520000000000001</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="G23" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.6159999999999997</v>
+      </c>
+      <c r="I23" s="3">
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3">
-        <v>7.0880000000000001</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5.5129999999999999</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4.5960000000000001</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3">
-        <v>7.0890000000000004</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.468</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4.665</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="3">
-        <v>7.0910000000000002</v>
+        <v>7.2839999999999998</v>
       </c>
       <c r="E24" s="3">
-        <v>5.5149999999999997</v>
+        <v>5.4909999999999997</v>
       </c>
       <c r="F24" s="3">
         <v>0.40300000000000002</v>
@@ -1149,274 +1149,274 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H24" s="3">
-        <v>4.5919999999999996</v>
+        <v>4.4450000000000003</v>
       </c>
       <c r="I24" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3">
-        <v>7.093</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="E25" s="3">
-        <v>5.4109999999999996</v>
+        <v>5.625</v>
       </c>
       <c r="F25" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G25" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H25" s="3">
-        <v>4.468</v>
+        <v>4.609</v>
       </c>
       <c r="I25" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>7.0940000000000003</v>
+        <v>7.1689999999999996</v>
       </c>
       <c r="E26" s="3">
-        <v>5.5</v>
+        <v>5.4279999999999999</v>
       </c>
       <c r="F26" s="3">
-        <v>0.40200000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="G26" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H26" s="3">
-        <v>4.6289999999999996</v>
+        <v>4.4480000000000004</v>
       </c>
       <c r="I26" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>7.0940000000000003</v>
+        <v>7.19</v>
       </c>
       <c r="E27" s="3">
-        <v>5.56</v>
+        <v>5.4390000000000001</v>
       </c>
       <c r="F27" s="3">
-        <v>0.40699999999999997</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G27" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H27" s="3">
-        <v>4.6539999999999999</v>
+        <v>4.6219999999999999</v>
       </c>
       <c r="I27" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="3">
-        <v>7.0970000000000004</v>
+        <v>7.19</v>
       </c>
       <c r="E28" s="3">
-        <v>5.569</v>
+        <v>5.452</v>
       </c>
       <c r="F28" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.6120000000000001</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7.19</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.4710000000000001</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5.47</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7.24</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.55</v>
+      </c>
+      <c r="F31" s="3">
         <v>0.40699999999999997</v>
       </c>
-      <c r="G28" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4.6790000000000003</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>30</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
-        <v>7.0979999999999999</v>
-      </c>
-      <c r="E29" s="3">
-        <v>5.4109999999999996</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4.3659999999999997</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5.4859999999999998</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4.6280000000000001</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>20</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3">
-        <v>7.101</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5.4829999999999997</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.40100000000000002</v>
-      </c>
       <c r="G31" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H31" s="3">
-        <v>4.484</v>
+        <v>4.55</v>
       </c>
       <c r="I31" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="3">
-        <v>7.1029999999999998</v>
+        <v>7.2880000000000003</v>
       </c>
       <c r="E32" s="3">
-        <v>5.4969999999999999</v>
+        <v>5.593</v>
       </c>
       <c r="F32" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.41</v>
       </c>
       <c r="G32" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H32" s="3">
-        <v>4.6280000000000001</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="I32" s="3">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3">
-        <v>7.1079999999999997</v>
+        <v>7.41</v>
       </c>
       <c r="E33" s="3">
-        <v>5.4539999999999997</v>
+        <v>5.6070000000000002</v>
       </c>
       <c r="F33" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="G33" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H33" s="3">
-        <v>4.6349999999999998</v>
+        <v>4.5460000000000003</v>
       </c>
       <c r="I33" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -1424,88 +1424,88 @@
         <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7.0579999999999998</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4.6070000000000002</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>10</v>
       </c>
-      <c r="D34" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5.4790000000000001</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7.0890000000000004</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5.468</v>
+      </c>
+      <c r="F35" s="3">
         <v>0.40100000000000002</v>
       </c>
-      <c r="G34" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H34" s="3">
-        <v>4.569</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>20</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3">
-        <v>7.1150000000000002</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5.5010000000000003</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.40200000000000002</v>
-      </c>
       <c r="G35" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H35" s="3">
-        <v>4.5270000000000001</v>
+        <v>4.665</v>
       </c>
       <c r="I35" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="3">
-        <v>7.1159999999999997</v>
+        <v>7.1</v>
       </c>
       <c r="E36" s="3">
-        <v>5.42</v>
+        <v>5.4859999999999998</v>
       </c>
       <c r="F36" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G36" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H36" s="3">
-        <v>4.5190000000000001</v>
+        <v>4.6280000000000001</v>
       </c>
       <c r="I36" s="3">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
@@ -1514,54 +1514,54 @@
         <v>16</v>
       </c>
       <c r="D37" s="3">
-        <v>7.1159999999999997</v>
+        <v>7.1029999999999998</v>
       </c>
       <c r="E37" s="3">
-        <v>5.5650000000000004</v>
+        <v>5.4969999999999999</v>
       </c>
       <c r="F37" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G37" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H37" s="3">
-        <v>4.6660000000000004</v>
+        <v>4.6280000000000001</v>
       </c>
       <c r="I37" s="3">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3">
-        <v>7.1210000000000004</v>
+        <v>7.11</v>
       </c>
       <c r="E38" s="3">
-        <v>5.5449999999999999</v>
+        <v>5.4790000000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G38" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H38" s="3">
-        <v>4.5880000000000001</v>
+        <v>4.569</v>
       </c>
       <c r="I38" s="3">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -1590,21 +1590,21 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="3">
-        <v>7.1219999999999999</v>
+        <v>7.1239999999999997</v>
       </c>
       <c r="E40" s="3">
-        <v>5.5229999999999997</v>
+        <v>5.5110000000000001</v>
       </c>
       <c r="F40" s="3">
         <v>0.40400000000000003</v>
@@ -1613,13 +1613,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H40" s="3">
-        <v>4.5359999999999996</v>
+        <v>4.6840000000000002</v>
       </c>
       <c r="I40" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>10</v>
       </c>
@@ -1627,289 +1627,289 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3">
-        <v>7.1239999999999997</v>
+        <v>7.1260000000000003</v>
       </c>
       <c r="E41" s="3">
-        <v>5.5110000000000001</v>
+        <v>5.4909999999999997</v>
       </c>
       <c r="F41" s="3">
-        <v>0.40400000000000003</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G41" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H41" s="3">
-        <v>4.6840000000000002</v>
+        <v>4.6150000000000002</v>
       </c>
       <c r="I41" s="3">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3">
-        <v>7.1260000000000003</v>
+        <v>7.5490000000000004</v>
       </c>
       <c r="E42" s="3">
-        <v>5.4420000000000002</v>
+        <v>5.8970000000000002</v>
       </c>
       <c r="F42" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="G42" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H42" s="3">
-        <v>4.7309999999999999</v>
+        <v>4.8330000000000002</v>
       </c>
       <c r="I42" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>10</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" s="3">
-        <v>7.1260000000000003</v>
+        <v>7.56</v>
       </c>
       <c r="E43" s="3">
-        <v>5.4909999999999997</v>
+        <v>5.8689999999999998</v>
       </c>
       <c r="F43" s="3">
-        <v>0.40200000000000002</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G43" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H43" s="3">
-        <v>4.6150000000000002</v>
+        <v>4.8120000000000003</v>
       </c>
       <c r="I43" s="3">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3">
-        <v>7.1260000000000003</v>
+        <v>7.5949999999999998</v>
       </c>
       <c r="E44" s="3">
-        <v>5.5060000000000002</v>
+        <v>5.9240000000000004</v>
       </c>
       <c r="F44" s="3">
-        <v>0.40200000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="G44" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H44" s="3">
-        <v>4.4930000000000003</v>
+        <v>4.87</v>
       </c>
       <c r="I44" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3">
-        <v>7.1280000000000001</v>
+        <v>7.5960000000000001</v>
       </c>
       <c r="E45" s="3">
-        <v>5.4809999999999999</v>
+        <v>5.9169999999999998</v>
       </c>
       <c r="F45" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.432</v>
       </c>
       <c r="G45" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H45" s="3">
-        <v>4.5190000000000001</v>
+        <v>4.7069999999999999</v>
       </c>
       <c r="I45" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="3">
-        <v>7.1340000000000003</v>
+        <v>7.6020000000000003</v>
       </c>
       <c r="E46" s="3">
-        <v>5.431</v>
+        <v>5.9260000000000002</v>
       </c>
       <c r="F46" s="3">
-        <v>0.39800000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="G46" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H46" s="3">
-        <v>4.4980000000000002</v>
+        <v>4.68</v>
       </c>
       <c r="I46" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="3">
-        <v>7.1340000000000003</v>
+        <v>7.6109999999999998</v>
       </c>
       <c r="E47" s="3">
-        <v>5.45</v>
+        <v>5.9130000000000003</v>
       </c>
       <c r="F47" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.432</v>
       </c>
       <c r="G47" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H47" s="3">
-        <v>4.617</v>
+        <v>4.7960000000000003</v>
       </c>
       <c r="I47" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" s="3">
-        <v>7.1459999999999999</v>
+        <v>7.6740000000000004</v>
       </c>
       <c r="E48" s="3">
-        <v>5.593</v>
+        <v>6.0129999999999999</v>
       </c>
       <c r="F48" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.439</v>
       </c>
       <c r="G48" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H48" s="3">
-        <v>4.66</v>
+        <v>4.8620000000000001</v>
       </c>
       <c r="I48" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3">
-        <v>7.15</v>
+        <v>7.7389999999999999</v>
       </c>
       <c r="E49" s="3">
-        <v>5.4109999999999996</v>
+        <v>6.0549999999999997</v>
       </c>
       <c r="F49" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.442</v>
       </c>
       <c r="G49" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H49" s="3">
-        <v>4.4619999999999997</v>
+        <v>4.8019999999999996</v>
       </c>
       <c r="I49" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D50" s="3">
-        <v>7.1550000000000002</v>
+        <v>7.093</v>
       </c>
       <c r="E50" s="3">
-        <v>5.5389999999999997</v>
+        <v>5.4109999999999996</v>
       </c>
       <c r="F50" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G50" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H50" s="3">
-        <v>4.6879999999999997</v>
+        <v>4.468</v>
       </c>
       <c r="I50" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>10</v>
       </c>
@@ -1917,71 +1917,71 @@
         <v>18</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3">
-        <v>7.1580000000000004</v>
+        <v>7.1340000000000003</v>
       </c>
       <c r="E51" s="3">
-        <v>5.5049999999999999</v>
+        <v>5.431</v>
       </c>
       <c r="F51" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="G51" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H51" s="3">
-        <v>4.6529999999999996</v>
+        <v>4.4980000000000002</v>
       </c>
       <c r="I51" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3">
-        <v>7.1580000000000004</v>
+        <v>7.1340000000000003</v>
       </c>
       <c r="E52" s="3">
-        <v>5.508</v>
+        <v>5.45</v>
       </c>
       <c r="F52" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G52" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H52" s="3">
-        <v>4.7759999999999998</v>
+        <v>4.617</v>
       </c>
       <c r="I52" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3">
-        <v>7.1589999999999998</v>
+        <v>7.1580000000000004</v>
       </c>
       <c r="E53" s="3">
-        <v>5.4989999999999997</v>
+        <v>5.5049999999999999</v>
       </c>
       <c r="F53" s="3">
         <v>0.40300000000000002</v>
@@ -1990,71 +1990,71 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H53" s="3">
-        <v>4.5599999999999996</v>
+        <v>4.6529999999999996</v>
       </c>
       <c r="I53" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3">
-        <v>7.1609999999999996</v>
+        <v>7.165</v>
       </c>
       <c r="E54" s="3">
-        <v>5.6020000000000003</v>
+        <v>5.5229999999999997</v>
       </c>
       <c r="F54" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="G54" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H54" s="3">
-        <v>4.6120000000000001</v>
+        <v>4.7869999999999999</v>
       </c>
       <c r="I54" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D55" s="3">
-        <v>7.1619999999999999</v>
+        <v>7.1769999999999996</v>
       </c>
       <c r="E55" s="3">
-        <v>5.44</v>
+        <v>5.5019999999999998</v>
       </c>
       <c r="F55" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G55" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H55" s="3">
-        <v>4.5490000000000004</v>
+        <v>4.4960000000000004</v>
       </c>
       <c r="I55" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>10</v>
       </c>
@@ -2062,260 +2062,260 @@
         <v>18</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3">
-        <v>7.165</v>
+        <v>7.2539999999999996</v>
       </c>
       <c r="E56" s="3">
-        <v>5.5229999999999997</v>
+        <v>5.5860000000000003</v>
       </c>
       <c r="F56" s="3">
-        <v>0.40400000000000003</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G56" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H56" s="3">
-        <v>4.7869999999999999</v>
+        <v>4.7160000000000002</v>
       </c>
       <c r="I56" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3">
-        <v>7.1680000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="E57" s="3">
-        <v>5.468</v>
+        <v>5.65</v>
       </c>
       <c r="F57" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G57" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H57" s="3">
-        <v>4.5510000000000002</v>
+        <v>4.7160000000000002</v>
       </c>
       <c r="I57" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3">
+        <v>7.0620000000000003</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4.5359999999999996</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
         <v>10</v>
       </c>
-      <c r="D58" s="3">
-        <v>7.1689999999999996</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5.4279999999999999</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4.4480000000000004</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>20</v>
-      </c>
       <c r="B59" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3">
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5.42</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4.5190000000000001</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="D59" s="3">
-        <v>7.173</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5.5570000000000004</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4.6109999999999998</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>20</v>
-      </c>
       <c r="B60" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D60" s="3">
-        <v>7.1740000000000004</v>
+        <v>7.1260000000000003</v>
       </c>
       <c r="E60" s="3">
-        <v>5.5350000000000001</v>
+        <v>5.4420000000000002</v>
       </c>
       <c r="F60" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G60" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H60" s="3">
-        <v>4.5330000000000004</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="I60" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" s="3">
-        <v>7.1769999999999996</v>
+        <v>7.1580000000000004</v>
       </c>
       <c r="E61" s="3">
-        <v>5.4729999999999999</v>
+        <v>5.508</v>
       </c>
       <c r="F61" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G61" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H61" s="3">
-        <v>4.569</v>
+        <v>4.7759999999999998</v>
       </c>
       <c r="I61" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>10</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D62" s="3">
-        <v>7.1769999999999996</v>
+        <v>7.19</v>
       </c>
       <c r="E62" s="3">
-        <v>5.5019999999999998</v>
+        <v>5.4279999999999999</v>
       </c>
       <c r="F62" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="G62" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H62" s="3">
-        <v>4.4960000000000004</v>
+        <v>4.4359999999999999</v>
       </c>
       <c r="I62" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D63" s="3">
-        <v>7.1779999999999999</v>
+        <v>7.3220000000000001</v>
       </c>
       <c r="E63" s="3">
-        <v>5.5330000000000004</v>
+        <v>5.5529999999999999</v>
       </c>
       <c r="F63" s="3">
-        <v>0.40400000000000003</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G63" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H63" s="3">
-        <v>4.4880000000000004</v>
+        <v>4.5019999999999998</v>
       </c>
       <c r="I63" s="3">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="3">
-        <v>7.1829999999999998</v>
+        <v>7.3920000000000003</v>
       </c>
       <c r="E64" s="3">
-        <v>5.5209999999999999</v>
+        <v>5.6449999999999996</v>
       </c>
       <c r="F64" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G64" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H64" s="3">
-        <v>4.6230000000000002</v>
+        <v>4.593</v>
       </c>
       <c r="I64" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>10</v>
       </c>
@@ -2323,129 +2323,129 @@
         <v>19</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7.4580000000000002</v>
+      </c>
+      <c r="E65" s="3">
+        <v>5.7370000000000001</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4.8730000000000002</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>20</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="3">
-        <v>7.19</v>
-      </c>
-      <c r="E65" s="3">
-        <v>5.4279999999999999</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="G65" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H65" s="3">
-        <v>4.4359999999999999</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>5</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D66" s="3">
-        <v>7.19</v>
+        <v>6.9459999999999997</v>
       </c>
       <c r="E66" s="3">
-        <v>5.4390000000000001</v>
+        <v>5.3840000000000003</v>
       </c>
       <c r="F66" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G66" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H66" s="3">
-        <v>4.6219999999999999</v>
+        <v>4.5620000000000003</v>
       </c>
       <c r="I66" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" s="3">
-        <v>7.19</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="E67" s="3">
-        <v>5.452</v>
+        <v>5.4080000000000004</v>
       </c>
       <c r="F67" s="3">
-        <v>0.4</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="G67" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H67" s="3">
-        <v>4.6120000000000001</v>
+        <v>4.5449999999999999</v>
       </c>
       <c r="I67" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="3">
-        <v>7.19</v>
+        <v>7.0359999999999996</v>
       </c>
       <c r="E68" s="3">
-        <v>5.4710000000000001</v>
+        <v>5.508</v>
       </c>
       <c r="F68" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G68" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H68" s="3">
-        <v>4.4420000000000002</v>
+        <v>4.6109999999999998</v>
       </c>
       <c r="I68" s="3">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D69" s="3">
-        <v>7.1920000000000002</v>
+        <v>7.0529999999999999</v>
       </c>
       <c r="E69" s="3">
-        <v>5.5380000000000003</v>
+        <v>5.5330000000000004</v>
       </c>
       <c r="F69" s="3">
         <v>0.40500000000000003</v>
@@ -2454,462 +2454,462 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H69" s="3">
-        <v>4.492</v>
+        <v>4.6630000000000003</v>
       </c>
       <c r="I69" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D70" s="3">
-        <v>7.1929999999999996</v>
+        <v>7.0739999999999998</v>
       </c>
       <c r="E70" s="3">
-        <v>5.476</v>
+        <v>5.5549999999999997</v>
       </c>
       <c r="F70" s="3">
-        <v>0.40200000000000002</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G70" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H70" s="3">
-        <v>4.476</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="I70" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3">
-        <v>7.2</v>
+        <v>7.0860000000000003</v>
       </c>
       <c r="E71" s="3">
-        <v>5.5339999999999998</v>
+        <v>5.5670000000000002</v>
       </c>
       <c r="F71" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G71" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H71" s="3">
-        <v>4.6909999999999998</v>
+        <v>4.6520000000000001</v>
       </c>
       <c r="I71" s="3">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="3">
-        <v>7.2050000000000001</v>
+        <v>7.0940000000000003</v>
       </c>
       <c r="E72" s="3">
-        <v>5.6050000000000004</v>
+        <v>5.56</v>
       </c>
       <c r="F72" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G72" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H72" s="3">
-        <v>4.5620000000000003</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="I72" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>20</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="3">
-        <v>7.2060000000000004</v>
+        <v>7.0970000000000004</v>
       </c>
       <c r="E73" s="3">
-        <v>5.5819999999999999</v>
+        <v>5.569</v>
       </c>
       <c r="F73" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G73" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H73" s="3">
-        <v>4.6829999999999998</v>
+        <v>4.6790000000000003</v>
       </c>
       <c r="I73" s="3">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="3">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5.4240000000000004</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H74" s="3">
+        <v>4.585</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>20</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3">
+        <v>7.3029999999999999</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5.6920000000000002</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4.819</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>20</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="3">
-        <v>7.2149999999999999</v>
-      </c>
-      <c r="E74" s="3">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="G74" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H74" s="3">
-        <v>4.492</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>5</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="3">
-        <v>7.2160000000000002</v>
-      </c>
-      <c r="E75" s="3">
-        <v>5.47</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="G75" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H75" s="3">
-        <v>4.5869999999999997</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>5</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D76" s="3">
-        <v>7.2290000000000001</v>
+        <v>7.306</v>
       </c>
       <c r="E76" s="3">
-        <v>5.5570000000000004</v>
+        <v>5.7030000000000003</v>
       </c>
       <c r="F76" s="3">
-        <v>0.40699999999999997</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G76" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H76" s="3">
-        <v>4.609</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="I76" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D77" s="3">
-        <v>7.2380000000000004</v>
+        <v>7.3460000000000001</v>
       </c>
       <c r="E77" s="3">
-        <v>5.548</v>
+        <v>5.7679999999999998</v>
       </c>
       <c r="F77" s="3">
-        <v>0.40400000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="G77" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H77" s="3">
-        <v>4.4509999999999996</v>
+        <v>4.7169999999999996</v>
       </c>
       <c r="I77" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="3">
+        <v>7.3529999999999998</v>
+      </c>
+      <c r="E78" s="3">
+        <v>5.6859999999999999</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4.76</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>20</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="3">
-        <v>7.24</v>
-      </c>
-      <c r="E78" s="3">
-        <v>5.55</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="G78" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H78" s="3">
-        <v>4.55</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>5</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D79" s="3">
-        <v>7.2430000000000003</v>
+        <v>7.375</v>
       </c>
       <c r="E79" s="3">
-        <v>5.5529999999999999</v>
+        <v>5.7670000000000003</v>
       </c>
       <c r="F79" s="3">
-        <v>0.40699999999999997</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="G79" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H79" s="3">
-        <v>4.6159999999999997</v>
+        <v>4.7610000000000001</v>
       </c>
       <c r="I79" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="3">
-        <v>7.2439999999999998</v>
+        <v>7.3760000000000003</v>
       </c>
       <c r="E80" s="3">
-        <v>5.5549999999999997</v>
+        <v>5.7169999999999996</v>
       </c>
       <c r="F80" s="3">
-        <v>0.40500000000000003</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="G80" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H80" s="3">
-        <v>4.4909999999999997</v>
+        <v>4.7990000000000004</v>
       </c>
       <c r="I80" s="3">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D81" s="3">
-        <v>7.2460000000000004</v>
+        <v>7.5</v>
       </c>
       <c r="E81" s="3">
-        <v>5.524</v>
+        <v>5.8970000000000002</v>
       </c>
       <c r="F81" s="3">
-        <v>0.40200000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="G81" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H81" s="3">
-        <v>4.548</v>
+        <v>4.9870000000000001</v>
       </c>
       <c r="I81" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D82" s="3">
-        <v>7.2480000000000002</v>
+        <v>6.976</v>
       </c>
       <c r="E82" s="3">
-        <v>5.6189999999999998</v>
+        <v>5.39</v>
       </c>
       <c r="F82" s="3">
-        <v>0.41</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G82" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H82" s="3">
-        <v>4.63</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="I82" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="3">
-        <v>7.2539999999999996</v>
+        <v>7.0449999999999999</v>
       </c>
       <c r="E83" s="3">
-        <v>5.5860000000000003</v>
+        <v>5.3840000000000003</v>
       </c>
       <c r="F83" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G83" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H83" s="3">
-        <v>4.7160000000000002</v>
+        <v>4.5209999999999999</v>
       </c>
       <c r="I83" s="3">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="3">
-        <v>7.2610000000000001</v>
+        <v>7.0549999999999997</v>
       </c>
       <c r="E84" s="3">
-        <v>5.5350000000000001</v>
+        <v>5.4509999999999996</v>
       </c>
       <c r="F84" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G84" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H84" s="3">
-        <v>4.5220000000000002</v>
+        <v>4.556</v>
       </c>
       <c r="I84" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="3">
-        <v>7.2729999999999997</v>
+        <v>7.101</v>
       </c>
       <c r="E85" s="3">
-        <v>5.5110000000000001</v>
+        <v>5.4829999999999997</v>
       </c>
       <c r="F85" s="3">
         <v>0.40100000000000002</v>
@@ -2918,73 +2918,73 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H85" s="3">
-        <v>4.694</v>
+        <v>4.484</v>
       </c>
       <c r="I85" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="3">
-        <v>7.2759999999999998</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="E86" s="3">
-        <v>5.5789999999999997</v>
+        <v>5.5010000000000003</v>
       </c>
       <c r="F86" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G86" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H86" s="3">
-        <v>4.468</v>
+        <v>4.5270000000000001</v>
       </c>
       <c r="I86" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="3">
-        <v>7.2809999999999997</v>
+        <v>7.173</v>
       </c>
       <c r="E87" s="3">
-        <v>5.5439999999999996</v>
+        <v>5.5570000000000004</v>
       </c>
       <c r="F87" s="3">
-        <v>0.40400000000000003</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G87" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H87" s="3">
-        <v>4.3579999999999997</v>
+        <v>4.6109999999999998</v>
       </c>
       <c r="I87" s="3">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>18</v>
@@ -2993,83 +2993,83 @@
         <v>11</v>
       </c>
       <c r="D88" s="3">
-        <v>7.2839999999999998</v>
+        <v>7.1740000000000004</v>
       </c>
       <c r="E88" s="3">
-        <v>5.4909999999999997</v>
+        <v>5.5350000000000001</v>
       </c>
       <c r="F88" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G88" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H88" s="3">
-        <v>4.4450000000000003</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="I88" s="3">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="3">
-        <v>7.2839999999999998</v>
+        <v>7.2060000000000004</v>
       </c>
       <c r="E89" s="3">
-        <v>5.585</v>
+        <v>5.5819999999999999</v>
       </c>
       <c r="F89" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="G89" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H89" s="3">
-        <v>4.4429999999999996</v>
+        <v>4.6829999999999998</v>
       </c>
       <c r="I89" s="3">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D90" s="3">
-        <v>7.2880000000000003</v>
+        <v>6.9960000000000004</v>
       </c>
       <c r="E90" s="3">
-        <v>5.593</v>
+        <v>5.383</v>
       </c>
       <c r="F90" s="3">
-        <v>0.41</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G90" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H90" s="3">
-        <v>4.6100000000000003</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I90" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>20</v>
       </c>
@@ -3077,86 +3077,86 @@
         <v>19</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" s="3">
-        <v>7.2889999999999997</v>
+        <v>7.008</v>
       </c>
       <c r="E91" s="3">
-        <v>5.7270000000000003</v>
+        <v>5.3570000000000002</v>
       </c>
       <c r="F91" s="3">
-        <v>0.41899999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="G91" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H91" s="3">
-        <v>4.8040000000000003</v>
+        <v>4.4390000000000001</v>
       </c>
       <c r="I91" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D92" s="3">
-        <v>7.2939999999999996</v>
+        <v>7.0880000000000001</v>
       </c>
       <c r="E92" s="3">
-        <v>5.5739999999999998</v>
+        <v>5.5129999999999999</v>
       </c>
       <c r="F92" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G92" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H92" s="3">
-        <v>4.556</v>
+        <v>4.5960000000000001</v>
       </c>
       <c r="I92" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D93" s="3">
-        <v>7.2939999999999996</v>
+        <v>7.0940000000000003</v>
       </c>
       <c r="E93" s="3">
-        <v>5.5919999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="F93" s="3">
-        <v>0.40699999999999997</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G93" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H93" s="3">
-        <v>4.59</v>
+        <v>4.6289999999999996</v>
       </c>
       <c r="I93" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>20</v>
       </c>
@@ -3164,245 +3164,245 @@
         <v>19</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D94" s="3">
-        <v>7.2960000000000003</v>
+        <v>7.1079999999999997</v>
       </c>
       <c r="E94" s="3">
-        <v>5.6159999999999997</v>
+        <v>5.4539999999999997</v>
       </c>
       <c r="F94" s="3">
-        <v>0.41099999999999998</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G94" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H94" s="3">
-        <v>4.625</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="I94" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>20</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="3">
-        <v>7.3029999999999999</v>
+        <v>7.1280000000000001</v>
       </c>
       <c r="E95" s="3">
-        <v>5.6920000000000002</v>
+        <v>5.4809999999999999</v>
       </c>
       <c r="F95" s="3">
-        <v>0.41599999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G95" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H95" s="3">
-        <v>4.819</v>
+        <v>4.5190000000000001</v>
       </c>
       <c r="I95" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" s="3">
-        <v>7.3049999999999997</v>
+        <v>7.2889999999999997</v>
       </c>
       <c r="E96" s="3">
-        <v>5.5940000000000003</v>
+        <v>5.7270000000000003</v>
       </c>
       <c r="F96" s="3">
-        <v>0.40699999999999997</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G96" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H96" s="3">
-        <v>4.6390000000000002</v>
+        <v>4.8040000000000003</v>
       </c>
       <c r="I96" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>20</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="3">
-        <v>7.306</v>
+        <v>7.2960000000000003</v>
       </c>
       <c r="E97" s="3">
-        <v>5.7030000000000003</v>
+        <v>5.6159999999999997</v>
       </c>
       <c r="F97" s="3">
-        <v>0.41699999999999998</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="G97" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H97" s="3">
-        <v>4.6349999999999998</v>
+        <v>4.625</v>
       </c>
       <c r="I97" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D98" s="3">
-        <v>7.3070000000000004</v>
+        <v>7.0019999999999998</v>
       </c>
       <c r="E98" s="3">
-        <v>5.5839999999999996</v>
+        <v>5.3630000000000004</v>
       </c>
       <c r="F98" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="G98" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H98" s="3">
-        <v>4.577</v>
+        <v>4.4409999999999998</v>
       </c>
       <c r="I98" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="3">
-        <v>7.31</v>
+        <v>7.0629999999999997</v>
       </c>
       <c r="E99" s="3">
-        <v>5.556</v>
+        <v>5.3920000000000003</v>
       </c>
       <c r="F99" s="3">
-        <v>0.40400000000000003</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G99" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H99" s="3">
-        <v>4.484</v>
+        <v>4.3170000000000002</v>
       </c>
       <c r="I99" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D100" s="3">
-        <v>7.3140000000000001</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="E100" s="3">
-        <v>5.6349999999999998</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="F100" s="3">
-        <v>0.41299999999999998</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G100" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H100" s="3">
-        <v>4.617</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="I100" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D101" s="3">
-        <v>7.3159999999999998</v>
+        <v>7.1159999999999997</v>
       </c>
       <c r="E101" s="3">
-        <v>5.6189999999999998</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="F101" s="3">
-        <v>0.41199999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G101" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H101" s="3">
-        <v>4.6059999999999999</v>
+        <v>4.6660000000000004</v>
       </c>
       <c r="I101" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>30</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="3">
-        <v>7.3170000000000002</v>
+        <v>7.1210000000000004</v>
       </c>
       <c r="E102" s="3">
-        <v>5.5439999999999996</v>
+        <v>5.5449999999999999</v>
       </c>
       <c r="F102" s="3">
         <v>0.40500000000000003</v>
@@ -3411,665 +3411,665 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H102" s="3">
-        <v>4.4800000000000004</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="I102" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D103" s="3">
-        <v>7.3170000000000002</v>
+        <v>7.1219999999999999</v>
       </c>
       <c r="E103" s="3">
-        <v>5.6449999999999996</v>
+        <v>5.5229999999999997</v>
       </c>
       <c r="F103" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="G103" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H103" s="3">
-        <v>4.66</v>
+        <v>4.5359999999999996</v>
       </c>
       <c r="I103" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" s="3">
-        <v>7.3179999999999996</v>
+        <v>7.1459999999999999</v>
       </c>
       <c r="E104" s="3">
-        <v>5.6210000000000004</v>
+        <v>5.593</v>
       </c>
       <c r="F104" s="3">
-        <v>0.41199999999999998</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G104" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H104" s="3">
-        <v>4.6230000000000002</v>
+        <v>4.66</v>
       </c>
       <c r="I104" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="3">
+        <v>7.1609999999999996</v>
+      </c>
+      <c r="E105" s="3">
+        <v>5.6020000000000003</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H105" s="3">
+        <v>4.6120000000000001</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>30</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="3">
-        <v>7.32</v>
-      </c>
-      <c r="E105" s="3">
-        <v>5.5910000000000002</v>
-      </c>
-      <c r="F105" s="3">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="G105" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H105" s="3">
-        <v>4.516</v>
-      </c>
-      <c r="I105" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>10</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D106" s="3">
-        <v>7.3220000000000001</v>
+        <v>7.4020000000000001</v>
       </c>
       <c r="E106" s="3">
-        <v>5.5529999999999999</v>
+        <v>5.7809999999999997</v>
       </c>
       <c r="F106" s="3">
-        <v>0.40699999999999997</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="G106" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H106" s="3">
-        <v>4.5019999999999998</v>
+        <v>4.7430000000000003</v>
       </c>
       <c r="I106" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>30</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3">
+        <v>7.4829999999999997</v>
+      </c>
+      <c r="E107" s="3">
+        <v>5.8410000000000002</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G107" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H107" s="3">
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>30</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="E108" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="G108" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H108" s="3">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>30</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3">
+        <v>7.5519999999999996</v>
+      </c>
+      <c r="E109" s="3">
+        <v>5.9630000000000001</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.435</v>
+      </c>
+      <c r="G109" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H109" s="3">
+        <v>5</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>30</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="3">
-        <v>7.3360000000000003</v>
-      </c>
-      <c r="E107" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="G107" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H107" s="3">
-        <v>4.6929999999999996</v>
-      </c>
-      <c r="I107" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>60</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="3">
-        <v>7.3390000000000004</v>
-      </c>
-      <c r="E108" s="3">
-        <v>5.5739999999999998</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="G108" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H108" s="3">
-        <v>4.4039999999999999</v>
-      </c>
-      <c r="I108" s="3">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>60</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="3">
-        <v>7.3419999999999996</v>
-      </c>
-      <c r="E109" s="3">
-        <v>5.6230000000000002</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="G109" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H109" s="3">
-        <v>4.476</v>
-      </c>
-      <c r="I109" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>60</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D110" s="3">
-        <v>7.3440000000000003</v>
+        <v>7.569</v>
       </c>
       <c r="E110" s="3">
-        <v>5.6120000000000001</v>
+        <v>5.9790000000000001</v>
       </c>
       <c r="F110" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.436</v>
       </c>
       <c r="G110" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H110" s="3">
-        <v>4.4710000000000001</v>
+        <v>4.8330000000000002</v>
       </c>
       <c r="I110" s="3">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" s="3">
-        <v>7.3460000000000001</v>
+        <v>7.5979999999999999</v>
       </c>
       <c r="E111" s="3">
-        <v>5.7679999999999998</v>
+        <v>5.9850000000000003</v>
       </c>
       <c r="F111" s="3">
-        <v>0.42099999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="G111" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H111" s="3">
-        <v>4.7169999999999996</v>
+        <v>4.8010000000000002</v>
       </c>
       <c r="I111" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D112" s="3">
-        <v>7.35</v>
+        <v>7.6420000000000003</v>
       </c>
       <c r="E112" s="3">
-        <v>5.61</v>
+        <v>6.0469999999999997</v>
       </c>
       <c r="F112" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.441</v>
       </c>
       <c r="G112" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H112" s="3">
-        <v>4.5490000000000004</v>
+        <v>4.9909999999999997</v>
       </c>
       <c r="I112" s="3">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="3">
-        <v>7.351</v>
+        <v>7.7220000000000004</v>
       </c>
       <c r="E113" s="3">
-        <v>5.6159999999999997</v>
+        <v>6.101</v>
       </c>
       <c r="F113" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="G113" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H113" s="3">
-        <v>4.5860000000000003</v>
+        <v>5.0510000000000002</v>
       </c>
       <c r="I113" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D114" s="3">
-        <v>7.3520000000000003</v>
+        <v>7.0519999999999996</v>
       </c>
       <c r="E114" s="3">
-        <v>5.6070000000000002</v>
+        <v>5.4260000000000002</v>
       </c>
       <c r="F114" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G114" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H114" s="3">
-        <v>4.5270000000000001</v>
+        <v>4.5330000000000004</v>
       </c>
       <c r="I114" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>30</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115" s="3">
-        <v>7.3529999999999998</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="E115" s="3">
-        <v>5.593</v>
+        <v>5.46</v>
       </c>
       <c r="F115" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G115" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H115" s="3">
-        <v>4.6760000000000002</v>
+        <v>4.5620000000000003</v>
       </c>
       <c r="I115" s="3">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" s="3">
-        <v>7.3529999999999998</v>
+        <v>7.0789999999999997</v>
       </c>
       <c r="E116" s="3">
-        <v>5.6859999999999999</v>
+        <v>5.4109999999999996</v>
       </c>
       <c r="F116" s="3">
-        <v>0.41599999999999998</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="G116" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H116" s="3">
-        <v>4.76</v>
+        <v>4.5940000000000003</v>
       </c>
       <c r="I116" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="3">
+        <v>7.0979999999999999</v>
+      </c>
+      <c r="E117" s="3">
+        <v>5.4109999999999996</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G117" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H117" s="3">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>30</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="3">
+        <v>7.1260000000000003</v>
+      </c>
+      <c r="E118" s="3">
+        <v>5.5060000000000002</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="G118" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H118" s="3">
+        <v>4.4930000000000003</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>30</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="3">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="E119" s="3">
+        <v>5.5389999999999997</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G119" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H119" s="3">
+        <v>4.6879999999999997</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>30</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="3">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="E120" s="3">
+        <v>5.5380000000000003</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H120" s="3">
+        <v>4.492</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>30</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="E121" s="3">
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G121" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H121" s="3">
+        <v>4.5620000000000003</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
+        <v>30</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="3">
+        <v>7.0449999999999999</v>
+      </c>
+      <c r="E122" s="3">
+        <v>5.3780000000000001</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G122" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H122" s="3">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>30</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3">
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="E123" s="3">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="G123" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H123" s="3">
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>30</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="3">
-        <v>7.3559999999999999</v>
-      </c>
-      <c r="E117" s="3">
-        <v>5.6360000000000001</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="G117" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H117" s="3">
-        <v>4.6189999999999998</v>
-      </c>
-      <c r="I117" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>60</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="3">
-        <v>7.367</v>
-      </c>
-      <c r="E118" s="3">
-        <v>5.673</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G118" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H118" s="3">
-        <v>4.58</v>
-      </c>
-      <c r="I118" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>60</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="3">
-        <v>7.3730000000000002</v>
-      </c>
-      <c r="E119" s="3">
-        <v>5.665</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G119" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H119" s="3">
-        <v>4.6070000000000002</v>
-      </c>
-      <c r="I119" s="3">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>20</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="3">
-        <v>7.375</v>
-      </c>
-      <c r="E120" s="3">
-        <v>5.7670000000000003</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="G120" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H120" s="3">
-        <v>4.7610000000000001</v>
-      </c>
-      <c r="I120" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>5</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="3">
-        <v>7.3760000000000003</v>
-      </c>
-      <c r="E121" s="3">
-        <v>5.6760000000000002</v>
-      </c>
-      <c r="F121" s="3">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="G121" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H121" s="3">
-        <v>4.58</v>
-      </c>
-      <c r="I121" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>20</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="3">
-        <v>7.3760000000000003</v>
-      </c>
-      <c r="E122" s="3">
-        <v>5.7169999999999996</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="G122" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H122" s="3">
-        <v>4.7990000000000004</v>
-      </c>
-      <c r="I122" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>90</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="3">
-        <v>7.3819999999999997</v>
-      </c>
-      <c r="E123" s="3">
-        <v>5.6440000000000001</v>
-      </c>
-      <c r="F123" s="3">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="G123" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H123" s="3">
-        <v>4.6379999999999999</v>
-      </c>
-      <c r="I123" s="3">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>60</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D124" s="3">
-        <v>7.3879999999999999</v>
+        <v>7.2149999999999999</v>
       </c>
       <c r="E124" s="3">
-        <v>5.61</v>
+        <v>5.4809999999999999</v>
       </c>
       <c r="F124" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G124" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H124" s="3">
-        <v>4.4480000000000004</v>
+        <v>4.492</v>
       </c>
       <c r="I124" s="3">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D125" s="3">
-        <v>7.3920000000000003</v>
+        <v>7.2480000000000002</v>
       </c>
       <c r="E125" s="3">
-        <v>5.64</v>
+        <v>5.6189999999999998</v>
       </c>
       <c r="F125" s="3">
         <v>0.41</v>
@@ -4078,230 +4078,230 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H125" s="3">
-        <v>4.4269999999999996</v>
+        <v>4.63</v>
       </c>
       <c r="I125" s="3">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D126" s="3">
-        <v>7.3920000000000003</v>
+        <v>7.3170000000000002</v>
       </c>
       <c r="E126" s="3">
-        <v>5.6449999999999996</v>
+        <v>5.5439999999999996</v>
       </c>
       <c r="F126" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G126" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H126" s="3">
-        <v>4.593</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="I126" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="3">
-        <v>7.3949999999999996</v>
+        <v>7.3360000000000003</v>
       </c>
       <c r="E127" s="3">
-        <v>5.6950000000000003</v>
+        <v>5.7</v>
       </c>
       <c r="F127" s="3">
-        <v>0.41499999999999998</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="G127" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H127" s="3">
-        <v>4.609</v>
+        <v>4.6929999999999996</v>
       </c>
       <c r="I127" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D128" s="3">
-        <v>7.4</v>
+        <v>7.3529999999999998</v>
       </c>
       <c r="E128" s="3">
-        <v>5.65</v>
+        <v>5.593</v>
       </c>
       <c r="F128" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G128" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H128" s="3">
-        <v>4.7160000000000002</v>
+        <v>4.6760000000000002</v>
       </c>
       <c r="I128" s="3">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>30</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="3">
+        <v>7.5430000000000001</v>
+      </c>
+      <c r="E129" s="3">
+        <v>5.7610000000000001</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G129" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H129" s="3">
+        <v>4.718</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
+        <v>60</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="3">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="E130" s="3">
+        <v>5.5549999999999997</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G130" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H130" s="3">
+        <v>4.4909999999999997</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
+        <v>60</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="3">
-        <v>7.4020000000000001</v>
-      </c>
-      <c r="E129" s="3">
-        <v>5.7809999999999997</v>
-      </c>
-      <c r="F129" s="3">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="G129" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H129" s="3">
-        <v>4.7430000000000003</v>
-      </c>
-      <c r="I129" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>5</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="D131" s="3">
+        <v>7.32</v>
+      </c>
+      <c r="E131" s="3">
+        <v>5.5910000000000002</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="G131" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H131" s="3">
+        <v>4.516</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
+        <v>60</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="3">
+        <v>7.3390000000000004</v>
+      </c>
+      <c r="E132" s="3">
+        <v>5.5739999999999998</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G132" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H132" s="3">
+        <v>4.4039999999999999</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
+        <v>60</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="3">
-        <v>7.4029999999999996</v>
-      </c>
-      <c r="E130" s="3">
-        <v>5.625</v>
-      </c>
-      <c r="F130" s="3">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G130" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H130" s="3">
-        <v>4.609</v>
-      </c>
-      <c r="I130" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>90</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="3">
-        <v>7.4029999999999996</v>
-      </c>
-      <c r="E131" s="3">
-        <v>5.6769999999999996</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G131" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H131" s="3">
-        <v>4.601</v>
-      </c>
-      <c r="I131" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>90</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="3">
-        <v>7.4039999999999999</v>
-      </c>
-      <c r="E132" s="3">
-        <v>5.5990000000000002</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G132" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H132" s="3">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="I132" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>90</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D133" s="3">
-        <v>7.4080000000000004</v>
+        <v>7.3419999999999996</v>
       </c>
       <c r="E133" s="3">
-        <v>5.6420000000000003</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="F133" s="3">
         <v>0.41</v>
@@ -4310,419 +4310,419 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H133" s="3">
-        <v>4.5739999999999998</v>
+        <v>4.476</v>
       </c>
       <c r="I133" s="3">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D134" s="3">
-        <v>7.41</v>
+        <v>7.3440000000000003</v>
       </c>
       <c r="E134" s="3">
-        <v>5.6070000000000002</v>
+        <v>5.6120000000000001</v>
       </c>
       <c r="F134" s="3">
-        <v>0.41099999999999998</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G134" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H134" s="3">
-        <v>4.5460000000000003</v>
+        <v>4.4710000000000001</v>
       </c>
       <c r="I134" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>60</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="3">
-        <v>7.4139999999999997</v>
+        <v>7.367</v>
       </c>
       <c r="E135" s="3">
-        <v>5.6319999999999997</v>
+        <v>5.673</v>
       </c>
       <c r="F135" s="3">
-        <v>0.41</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G135" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H135" s="3">
-        <v>4.806</v>
+        <v>4.58</v>
       </c>
       <c r="I135" s="3">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="3">
-        <v>7.4180000000000001</v>
+        <v>7.3730000000000002</v>
       </c>
       <c r="E136" s="3">
-        <v>5.718</v>
+        <v>5.665</v>
       </c>
       <c r="F136" s="3">
-        <v>0.41899999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="G136" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H136" s="3">
-        <v>4.7809999999999997</v>
+        <v>4.6070000000000002</v>
       </c>
       <c r="I136" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>60</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D137" s="3">
-        <v>7.4210000000000003</v>
+        <v>7.3879999999999999</v>
       </c>
       <c r="E137" s="3">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="F137" s="3">
-        <v>0.41199999999999998</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G137" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H137" s="3">
-        <v>4.601</v>
+        <v>4.4480000000000004</v>
       </c>
       <c r="I137" s="3">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D138" s="3">
-        <v>7.4260000000000002</v>
+        <v>7.5620000000000003</v>
       </c>
       <c r="E138" s="3">
-        <v>5.6219999999999999</v>
+        <v>5.8869999999999996</v>
       </c>
       <c r="F138" s="3">
-        <v>0.41</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="G138" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H138" s="3">
-        <v>4.4939999999999998</v>
+        <v>4.7539999999999996</v>
       </c>
       <c r="I138" s="3">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>60</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D139" s="3">
-        <v>7.4290000000000003</v>
+        <v>7.5810000000000004</v>
       </c>
       <c r="E139" s="3">
-        <v>5.64</v>
+        <v>5.9</v>
       </c>
       <c r="F139" s="3">
-        <v>0.41099999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G139" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H139" s="3">
-        <v>4.7430000000000003</v>
+        <v>4.7560000000000002</v>
       </c>
       <c r="I139" s="3">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>60</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3">
+        <v>7.6879999999999997</v>
+      </c>
+      <c r="E140" s="3">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G140" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H140" s="3">
+        <v>4.5880000000000001</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>60</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="3">
-        <v>7.4429999999999996</v>
-      </c>
-      <c r="E140" s="3">
-        <v>5.6619999999999999</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="G140" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H140" s="3">
-        <v>4.4379999999999997</v>
-      </c>
-      <c r="I140" s="3">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="D141" s="3">
+        <v>7.7190000000000003</v>
+      </c>
+      <c r="E141" s="3">
+        <v>5.9950000000000001</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0.436</v>
+      </c>
+      <c r="G141" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H141" s="3">
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>60</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="3">
-        <v>7.4580000000000002</v>
-      </c>
-      <c r="E141" s="3">
-        <v>5.7370000000000001</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="G141" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H141" s="3">
-        <v>4.8730000000000002</v>
-      </c>
-      <c r="I141" s="3">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>90</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D142" s="3">
-        <v>7.4580000000000002</v>
+        <v>7.8490000000000002</v>
       </c>
       <c r="E142" s="3">
-        <v>5.7389999999999999</v>
+        <v>6.05</v>
       </c>
       <c r="F142" s="3">
-        <v>0.41699999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="G142" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H142" s="3">
-        <v>4.6120000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="I142" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>60</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="3">
-        <v>7.46</v>
+        <v>7.9269999999999996</v>
       </c>
       <c r="E143" s="3">
-        <v>5.6769999999999996</v>
+        <v>6.0970000000000004</v>
       </c>
       <c r="F143" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G143" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H143" s="3">
-        <v>4.4000000000000004</v>
+        <v>5.0389999999999997</v>
       </c>
       <c r="I143" s="3">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>60</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D144" s="3">
-        <v>7.4740000000000002</v>
+        <v>7.9939999999999998</v>
       </c>
       <c r="E144" s="3">
-        <v>5.7569999999999997</v>
+        <v>6.1440000000000001</v>
       </c>
       <c r="F144" s="3">
-        <v>0.41899999999999998</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G144" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H144" s="3">
-        <v>4.7</v>
+        <v>4.9930000000000003</v>
       </c>
       <c r="I144" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D145" s="3">
-        <v>7.4829999999999997</v>
+        <v>8.1720000000000006</v>
       </c>
       <c r="E145" s="3">
-        <v>5.8410000000000002</v>
+        <v>6.38</v>
       </c>
       <c r="F145" s="3">
-        <v>0.42599999999999999</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="G145" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H145" s="3">
-        <v>4.8090000000000002</v>
+        <v>5.3</v>
       </c>
       <c r="I145" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>60</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D146" s="3">
-        <v>7.4930000000000003</v>
+        <v>7.2759999999999998</v>
       </c>
       <c r="E146" s="3">
-        <v>5.7290000000000001</v>
+        <v>5.5789999999999997</v>
       </c>
       <c r="F146" s="3">
-        <v>0.41699999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G146" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H146" s="3">
-        <v>4.5949999999999998</v>
+        <v>4.468</v>
       </c>
       <c r="I146" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D147" s="3">
-        <v>7.4950000000000001</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="E147" s="3">
-        <v>5.766</v>
+        <v>5.5739999999999998</v>
       </c>
       <c r="F147" s="3">
-        <v>0.41899999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G147" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H147" s="3">
-        <v>4.6779999999999999</v>
+        <v>4.556</v>
       </c>
       <c r="I147" s="3">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>60</v>
       </c>
@@ -4730,173 +4730,173 @@
         <v>18</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D148" s="3">
-        <v>7.4980000000000002</v>
+        <v>7.3949999999999996</v>
       </c>
       <c r="E148" s="3">
-        <v>5.7539999999999996</v>
+        <v>5.6950000000000003</v>
       </c>
       <c r="F148" s="3">
-        <v>0.41899999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="G148" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H148" s="3">
-        <v>4.5919999999999996</v>
+        <v>4.609</v>
       </c>
       <c r="I148" s="3">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D149" s="3">
-        <v>7.5</v>
+        <v>7.4290000000000003</v>
       </c>
       <c r="E149" s="3">
-        <v>5.8970000000000002</v>
+        <v>5.64</v>
       </c>
       <c r="F149" s="3">
-        <v>0.43</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="G149" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H149" s="3">
-        <v>4.9870000000000001</v>
+        <v>4.7430000000000003</v>
       </c>
       <c r="I149" s="3">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>60</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="3">
-        <v>7.508</v>
+        <v>7.46</v>
       </c>
       <c r="E150" s="3">
-        <v>5.7919999999999998</v>
+        <v>5.6769999999999996</v>
       </c>
       <c r="F150" s="3">
-        <v>0.42099999999999999</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G150" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H150" s="3">
-        <v>4.5209999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I150" s="3">
-        <v>0.32800000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="3">
-        <v>7.5129999999999999</v>
+        <v>7.4740000000000002</v>
       </c>
       <c r="E151" s="3">
-        <v>5.7770000000000001</v>
+        <v>5.7569999999999997</v>
       </c>
       <c r="F151" s="3">
-        <v>0.42</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G151" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H151" s="3">
-        <v>4.758</v>
+        <v>4.7</v>
       </c>
       <c r="I151" s="3">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" s="3">
-        <v>7.5170000000000003</v>
+        <v>7.4980000000000002</v>
       </c>
       <c r="E152" s="3">
-        <v>5.7439999999999998</v>
+        <v>5.7539999999999996</v>
       </c>
       <c r="F152" s="3">
-        <v>0.41699999999999998</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G152" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H152" s="3">
-        <v>4.7119999999999997</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="I152" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>60</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D153" s="3">
-        <v>7.5270000000000001</v>
+        <v>7.5650000000000004</v>
       </c>
       <c r="E153" s="3">
-        <v>5.835</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="F153" s="3">
-        <v>0.42399999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G153" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H153" s="3">
-        <v>4.7309999999999999</v>
+        <v>4.7779999999999996</v>
       </c>
       <c r="I153" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>60</v>
       </c>
@@ -4904,494 +4904,494 @@
         <v>19</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D154" s="3">
-        <v>7.5289999999999999</v>
+        <v>7.3049999999999997</v>
       </c>
       <c r="E154" s="3">
-        <v>5.7510000000000003</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="F154" s="3">
-        <v>0.41899999999999998</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G154" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H154" s="3">
-        <v>4.5279999999999996</v>
+        <v>4.6390000000000002</v>
       </c>
       <c r="I154" s="3">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D155" s="3">
-        <v>7.5289999999999999</v>
+        <v>7.4139999999999997</v>
       </c>
       <c r="E155" s="3">
-        <v>5.89</v>
+        <v>5.6319999999999997</v>
       </c>
       <c r="F155" s="3">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="G155" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H155" s="3">
-        <v>4.8719999999999999</v>
+        <v>4.806</v>
       </c>
       <c r="I155" s="3">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" s="3">
-        <v>7.5430000000000001</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="E156" s="3">
-        <v>5.7610000000000001</v>
+        <v>5.66</v>
       </c>
       <c r="F156" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G156" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H156" s="3">
+        <v>4.601</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A157" s="1">
+        <v>60</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="3">
+        <v>7.4429999999999996</v>
+      </c>
+      <c r="E157" s="3">
+        <v>5.6619999999999999</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G157" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H157" s="3">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="I157" s="3">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
+        <v>60</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="3">
+        <v>7.4930000000000003</v>
+      </c>
+      <c r="E158" s="3">
+        <v>5.7290000000000001</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="G158" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H158" s="3">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A159" s="1">
+        <v>60</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="3">
+        <v>7.508</v>
+      </c>
+      <c r="E159" s="3">
+        <v>5.7919999999999998</v>
+      </c>
+      <c r="F159" s="3">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G156" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H156" s="3">
-        <v>4.718</v>
-      </c>
-      <c r="I156" s="3">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>10</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="3">
-        <v>7.5490000000000004</v>
-      </c>
-      <c r="E157" s="3">
-        <v>5.8970000000000002</v>
-      </c>
-      <c r="F157" s="3">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G157" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H157" s="3">
-        <v>4.8330000000000002</v>
-      </c>
-      <c r="I157" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>5</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="3">
-        <v>7.5519999999999996</v>
-      </c>
-      <c r="E158" s="3">
-        <v>5.8159999999999998</v>
-      </c>
-      <c r="F158" s="3">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="G158" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H158" s="3">
-        <v>4.7489999999999997</v>
-      </c>
-      <c r="I158" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>30</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="3">
-        <v>7.5519999999999996</v>
-      </c>
-      <c r="E159" s="3">
-        <v>5.9630000000000001</v>
-      </c>
-      <c r="F159" s="3">
-        <v>0.435</v>
-      </c>
       <c r="G159" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H159" s="3">
-        <v>5</v>
+        <v>4.5209999999999999</v>
       </c>
       <c r="I159" s="3">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D160" s="3">
-        <v>7.56</v>
+        <v>7.5270000000000001</v>
       </c>
       <c r="E160" s="3">
-        <v>5.8689999999999998</v>
+        <v>5.835</v>
       </c>
       <c r="F160" s="3">
-        <v>0.42899999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="G160" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H160" s="3">
-        <v>4.8120000000000003</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="I160" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>60</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="3">
-        <v>7.5620000000000003</v>
+        <v>7.5289999999999999</v>
       </c>
       <c r="E161" s="3">
-        <v>5.8869999999999996</v>
+        <v>5.7510000000000003</v>
       </c>
       <c r="F161" s="3">
-        <v>0.42799999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G161" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H161" s="3">
-        <v>4.7539999999999996</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="I161" s="3">
-        <v>0.34699999999999998</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="3">
+        <v>7.2380000000000004</v>
+      </c>
+      <c r="E162" s="3">
+        <v>5.548</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="G162" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H162" s="3">
+        <v>4.4509999999999996</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A163" s="1">
+        <v>90</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="3">
-        <v>7.5650000000000004</v>
-      </c>
-      <c r="E162" s="3">
-        <v>5.8559999999999999</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="G162" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H162" s="3">
-        <v>4.7779999999999996</v>
-      </c>
-      <c r="I162" s="3">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>5</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D163" s="3">
-        <v>7.5659999999999998</v>
+        <v>7.2460000000000004</v>
       </c>
       <c r="E163" s="3">
-        <v>5.8520000000000003</v>
+        <v>5.524</v>
       </c>
       <c r="F163" s="3">
-        <v>0.42799999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="G163" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H163" s="3">
-        <v>4.7549999999999999</v>
+        <v>4.548</v>
       </c>
       <c r="I163" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D164" s="3">
-        <v>7.569</v>
+        <v>7.2610000000000001</v>
       </c>
       <c r="E164" s="3">
-        <v>5.9790000000000001</v>
+        <v>5.5350000000000001</v>
       </c>
       <c r="F164" s="3">
-        <v>0.436</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="G164" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H164" s="3">
-        <v>4.8330000000000002</v>
+        <v>4.5220000000000002</v>
       </c>
       <c r="I164" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D165" s="3">
-        <v>7.577</v>
+        <v>7.2809999999999997</v>
       </c>
       <c r="E165" s="3">
-        <v>5.82</v>
+        <v>5.5439999999999996</v>
       </c>
       <c r="F165" s="3">
-        <v>0.42599999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="G165" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H165" s="3">
-        <v>4.8019999999999996</v>
+        <v>4.3579999999999997</v>
       </c>
       <c r="I165" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>90</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D166" s="3">
-        <v>7.5780000000000003</v>
+        <v>7.2839999999999998</v>
       </c>
       <c r="E166" s="3">
-        <v>5.8120000000000003</v>
+        <v>5.585</v>
       </c>
       <c r="F166" s="3">
-        <v>0.42199999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G166" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H166" s="3">
-        <v>4.7590000000000003</v>
+        <v>4.4429999999999996</v>
       </c>
       <c r="I166" s="3">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="3">
-        <v>7.5810000000000004</v>
+        <v>7.2939999999999996</v>
       </c>
       <c r="E167" s="3">
-        <v>5.9</v>
+        <v>5.5919999999999996</v>
       </c>
       <c r="F167" s="3">
-        <v>0.42899999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G167" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H167" s="3">
-        <v>4.7560000000000002</v>
+        <v>4.59</v>
       </c>
       <c r="I167" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>90</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="3">
-        <v>7.5839999999999996</v>
+        <v>7.3070000000000004</v>
       </c>
       <c r="E168" s="3">
-        <v>5.81</v>
+        <v>5.5839999999999996</v>
       </c>
       <c r="F168" s="3">
-        <v>0.42299999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G168" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H168" s="3">
-        <v>4.6589999999999998</v>
+        <v>4.577</v>
       </c>
       <c r="I168" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D169" s="3">
-        <v>7.5949999999999998</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="E169" s="3">
-        <v>5.9240000000000004</v>
+        <v>5.6219999999999999</v>
       </c>
       <c r="F169" s="3">
-        <v>0.433</v>
+        <v>0.41</v>
       </c>
       <c r="G169" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H169" s="3">
-        <v>4.87</v>
+        <v>4.4939999999999998</v>
       </c>
       <c r="I169" s="3">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D170" s="3">
-        <v>7.5960000000000001</v>
+        <v>7.5780000000000003</v>
       </c>
       <c r="E170" s="3">
-        <v>5.9169999999999998</v>
+        <v>5.8120000000000003</v>
       </c>
       <c r="F170" s="3">
-        <v>0.432</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="G170" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H170" s="3">
-        <v>4.7069999999999999</v>
+        <v>4.7590000000000003</v>
       </c>
       <c r="I170" s="3">
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -5400,114 +5400,114 @@
         <v>9</v>
       </c>
       <c r="D171" s="3">
-        <v>7.5979999999999999</v>
+        <v>7.665</v>
       </c>
       <c r="E171" s="3">
-        <v>5.9850000000000003</v>
+        <v>5.8680000000000003</v>
       </c>
       <c r="F171" s="3">
-        <v>0.436</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G171" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H171" s="3">
-        <v>4.8010000000000002</v>
+        <v>4.7679999999999998</v>
       </c>
       <c r="I171" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D172" s="3">
-        <v>7.6020000000000003</v>
+        <v>7.68</v>
       </c>
       <c r="E172" s="3">
-        <v>5.9260000000000002</v>
+        <v>5.9119999999999999</v>
       </c>
       <c r="F172" s="3">
-        <v>0.433</v>
+        <v>0.43</v>
       </c>
       <c r="G172" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H172" s="3">
-        <v>4.68</v>
+        <v>4.9189999999999996</v>
       </c>
       <c r="I172" s="3">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D173" s="3">
-        <v>7.6109999999999998</v>
+        <v>7.7060000000000004</v>
       </c>
       <c r="E173" s="3">
-        <v>5.9130000000000003</v>
+        <v>5.9870000000000001</v>
       </c>
       <c r="F173" s="3">
-        <v>0.432</v>
+        <v>0.435</v>
       </c>
       <c r="G173" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H173" s="3">
-        <v>4.7960000000000003</v>
+        <v>4.8810000000000002</v>
       </c>
       <c r="I173" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D174" s="3">
-        <v>7.6159999999999997</v>
+        <v>7.7089999999999996</v>
       </c>
       <c r="E174" s="3">
-        <v>5.907</v>
+        <v>5.9509999999999996</v>
       </c>
       <c r="F174" s="3">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="G174" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H174" s="3">
-        <v>4.7549999999999999</v>
+        <v>4.9210000000000003</v>
       </c>
       <c r="I174" s="3">
-        <v>0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -5516,25 +5516,25 @@
         <v>13</v>
       </c>
       <c r="D175" s="3">
-        <v>7.6420000000000003</v>
+        <v>7.7889999999999997</v>
       </c>
       <c r="E175" s="3">
-        <v>6.0469999999999997</v>
+        <v>6.0519999999999996</v>
       </c>
       <c r="F175" s="3">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="G175" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H175" s="3">
-        <v>4.9909999999999997</v>
+        <v>4.9050000000000002</v>
       </c>
       <c r="I175" s="3">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>90</v>
       </c>
@@ -5542,524 +5542,525 @@
         <v>17</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" s="3">
-        <v>7.665</v>
+        <v>7.8029999999999999</v>
       </c>
       <c r="E176" s="3">
-        <v>5.8680000000000003</v>
+        <v>5.9960000000000004</v>
       </c>
       <c r="F176" s="3">
-        <v>0.42599999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="G176" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H176" s="3">
-        <v>4.7679999999999998</v>
+        <v>4.9560000000000004</v>
       </c>
       <c r="I176" s="3">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D177" s="3">
-        <v>7.67</v>
+        <v>7.8869999999999996</v>
       </c>
       <c r="E177" s="3">
-        <v>5.9290000000000003</v>
+        <v>6.0789999999999997</v>
       </c>
       <c r="F177" s="3">
-        <v>0.434</v>
+        <v>0.442</v>
       </c>
       <c r="G177" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H177" s="3">
-        <v>4.782</v>
+        <v>4.9939999999999998</v>
       </c>
       <c r="I177" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D178" s="3">
-        <v>7.6740000000000004</v>
+        <v>7.351</v>
       </c>
       <c r="E178" s="3">
-        <v>6.0129999999999999</v>
+        <v>5.6159999999999997</v>
       </c>
       <c r="F178" s="3">
-        <v>0.439</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="G178" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H178" s="3">
-        <v>4.8620000000000001</v>
+        <v>4.5860000000000003</v>
       </c>
       <c r="I178" s="3">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>90</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D179" s="3">
-        <v>7.68</v>
+        <v>7.3559999999999999</v>
       </c>
       <c r="E179" s="3">
-        <v>5.9119999999999999</v>
+        <v>5.6360000000000001</v>
       </c>
       <c r="F179" s="3">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="G179" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H179" s="3">
-        <v>4.9189999999999996</v>
+        <v>4.6189999999999998</v>
       </c>
       <c r="I179" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D180" s="3">
-        <v>7.6879999999999997</v>
+        <v>7.3819999999999997</v>
       </c>
       <c r="E180" s="3">
-        <v>5.8739999999999997</v>
+        <v>5.6440000000000001</v>
       </c>
       <c r="F180" s="3">
-        <v>0.42799999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="G180" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H180" s="3">
-        <v>4.5880000000000001</v>
+        <v>4.6379999999999999</v>
       </c>
       <c r="I180" s="3">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>90</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D181" s="3">
-        <v>7.7060000000000004</v>
+        <v>7.3920000000000003</v>
       </c>
       <c r="E181" s="3">
-        <v>5.9870000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="F181" s="3">
-        <v>0.435</v>
+        <v>0.41</v>
       </c>
       <c r="G181" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H181" s="3">
-        <v>4.8810000000000002</v>
+        <v>4.4269999999999996</v>
       </c>
       <c r="I181" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>90</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="3">
+        <v>7.4029999999999996</v>
+      </c>
+      <c r="E182" s="3">
+        <v>5.6769999999999996</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="G182" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H182" s="3">
+        <v>4.601</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A183" s="1">
+        <v>90</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="3">
+        <v>7.4039999999999999</v>
+      </c>
+      <c r="E183" s="3">
+        <v>5.5990000000000002</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G183" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H183" s="3">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="A184" s="1">
+        <v>90</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="3">
-        <v>7.7089999999999996</v>
-      </c>
-      <c r="E182" s="3">
-        <v>5.9509999999999996</v>
-      </c>
-      <c r="F182" s="3">
-        <v>0.433</v>
-      </c>
-      <c r="G182" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H182" s="3">
-        <v>4.9210000000000003</v>
-      </c>
-      <c r="I182" s="3">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>60</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" s="3">
-        <v>7.7190000000000003</v>
-      </c>
-      <c r="E183" s="3">
-        <v>5.9950000000000001</v>
-      </c>
-      <c r="F183" s="3">
-        <v>0.436</v>
-      </c>
-      <c r="G183" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H183" s="3">
-        <v>4.8490000000000002</v>
-      </c>
-      <c r="I183" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>30</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D184" s="3">
-        <v>7.7220000000000004</v>
+        <v>7.4580000000000002</v>
       </c>
       <c r="E184" s="3">
-        <v>6.101</v>
+        <v>5.7389999999999999</v>
       </c>
       <c r="F184" s="3">
-        <v>0.44500000000000001</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G184" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H184" s="3">
-        <v>5.0510000000000002</v>
+        <v>4.6120000000000001</v>
       </c>
       <c r="I184" s="3">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D185" s="3">
-        <v>7.7389999999999999</v>
+        <v>7.4950000000000001</v>
       </c>
       <c r="E185" s="3">
-        <v>6.0549999999999997</v>
+        <v>5.766</v>
       </c>
       <c r="F185" s="3">
-        <v>0.442</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G185" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H185" s="3">
-        <v>4.8019999999999996</v>
+        <v>4.6779999999999999</v>
       </c>
       <c r="I185" s="3">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>90</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="3">
-        <v>7.7889999999999997</v>
+        <v>7.2729999999999997</v>
       </c>
       <c r="E186" s="3">
-        <v>6.0519999999999996</v>
+        <v>5.5110000000000001</v>
       </c>
       <c r="F186" s="3">
-        <v>0.439</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G186" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H186" s="3">
-        <v>4.9050000000000002</v>
+        <v>4.694</v>
       </c>
       <c r="I186" s="3">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>90</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D187" s="3">
-        <v>7.8029999999999999</v>
+        <v>7.31</v>
       </c>
       <c r="E187" s="3">
-        <v>5.9960000000000004</v>
+        <v>5.556</v>
       </c>
       <c r="F187" s="3">
-        <v>0.436</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="G187" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H187" s="3">
-        <v>4.9560000000000004</v>
+        <v>4.484</v>
       </c>
       <c r="I187" s="3">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D188" s="3">
-        <v>7.8490000000000002</v>
+        <v>7.35</v>
       </c>
       <c r="E188" s="3">
-        <v>6.05</v>
+        <v>5.61</v>
       </c>
       <c r="F188" s="3">
-        <v>0.44</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="G188" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H188" s="3">
-        <v>5.01</v>
+        <v>4.5490000000000004</v>
       </c>
       <c r="I188" s="3">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>90</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D189" s="3">
-        <v>7.8869999999999996</v>
+        <v>7.3520000000000003</v>
       </c>
       <c r="E189" s="3">
-        <v>6.0789999999999997</v>
+        <v>5.6070000000000002</v>
       </c>
       <c r="F189" s="3">
-        <v>0.442</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="G189" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H189" s="3">
-        <v>4.9939999999999998</v>
+        <v>4.5270000000000001</v>
       </c>
       <c r="I189" s="3">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D190" s="3">
-        <v>7.8929999999999998</v>
+        <v>7.4080000000000004</v>
       </c>
       <c r="E190" s="3">
-        <v>6.1269999999999998</v>
+        <v>5.6420000000000003</v>
       </c>
       <c r="F190" s="3">
-        <v>0.44800000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="G190" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H190" s="3">
-        <v>4.9560000000000004</v>
+        <v>4.5739999999999998</v>
       </c>
       <c r="I190" s="3">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D191" s="3">
-        <v>7.9269999999999996</v>
+        <v>7.5129999999999999</v>
       </c>
       <c r="E191" s="3">
-        <v>6.0970000000000004</v>
+        <v>5.7770000000000001</v>
       </c>
       <c r="F191" s="3">
-        <v>0.44400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="G191" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H191" s="3">
-        <v>5.0389999999999997</v>
+        <v>4.758</v>
       </c>
       <c r="I191" s="3">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D192" s="3">
-        <v>7.9939999999999998</v>
+        <v>7.5170000000000003</v>
       </c>
       <c r="E192" s="3">
-        <v>6.1440000000000001</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="F192" s="3">
-        <v>0.44700000000000001</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="G192" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H192" s="3">
-        <v>4.9930000000000003</v>
+        <v>4.7119999999999997</v>
       </c>
       <c r="I192" s="3">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="28.5" x14ac:dyDescent="0.3">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="32" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D193" s="3">
-        <v>8.1720000000000006</v>
+        <v>7.5839999999999996</v>
       </c>
       <c r="E193" s="3">
-        <v>6.38</v>
+        <v>5.81</v>
       </c>
       <c r="F193" s="3">
-        <v>0.46400000000000002</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="G193" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H193" s="3">
-        <v>5.3</v>
+        <v>4.6589999999999998</v>
       </c>
       <c r="I193" s="3">
-        <v>0.38700000000000001</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I193" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I193">
-      <sortCondition ref="D1:D193"/>
+      <sortCondition ref="A2:A193"/>
+      <sortCondition descending="1" ref="B2:B193"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
